--- a/biology/Botanique/Geonoma_oldemanii/Geonoma_oldemanii.xlsx
+++ b/biology/Botanique/Geonoma_oldemanii/Geonoma_oldemanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geonoma oldemanii  est une espèce de plantes à fleurs monocotylédones du genre Geonoma et de la famille des Arecaceae (les palmiers). Elle a été décrite par Jean-Jacques de Granville assez récemment.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un  petit palmier cespiteux de sous-bois. Généralement 1 à 3 tiges dressées, parfois inclinées à la base, de 1 à 3 m de haut et 1,5 à 3 cm de diamètre, à entre-nœuds de 1 à 3 cm, avec des rejets à la base. Il y a une couronne de 6 à 18 feuilles entières, spectaculaires. Les feuilles de 1,3 à 2,2 m de long, sont dressées à la base, étalées au sommet.
 Le pétiole est très court, de 10 à 25 cm. Le limbe est oblancéolé, étroit, de 15 à 30 cm de large et 1 à 2 m de long, jamais segmenté et profondément bifide.
@@ -545,16 +559,92 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Guyane, Suriname, et territoire d'Amapa au Brésil.
 En Guyane, il est uniquement présent dans la bande subcôtière, jamais à plus de 80 km du littoral vers l'intérieur.
-Écologiquement, G. oldemanii est une espèce de sous-bois humide et marécageux. Son habitat se situe dans les forêts marécageuses , parfois sur sol drainé [1],[2].
-Taxonomie
-Il a été décrit pour la première fois en 1975 par Jean-Jacques de Granville dans la revue Adansonia, n.s., 14: 553 [3] (ou plutôt : 1974 publ. 1975).
-Étymologie
-Geonoma : nom générique qui dérive du grec  signifiant « colons », faisant probablement référence au regroupement serré de ces petits palmiers, ceci etant une forme habituelle de ces nombreuses petites espèces cespiteuses.
-oldemanii : en hommage à Roelof Arend Albert Oldeman , botaniste Hollandais, Maître de Recherches au Centre O.R.S.T.O.M. de Cayenne, qui a découvert cette espèce sur les rives du fleuve Sinnamary en 1955 [3].Oldeman, avec F.Hallé, ont mis au point les définitions de modèles de l’ « Architecture végétale », a partir de la typologie de développement des arbres des forêts tropicales [4].
+Écologiquement, G. oldemanii est une espèce de sous-bois humide et marécageux. Son habitat se situe dans les forêts marécageuses , parfois sur sol drainé ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Geonoma_oldemanii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geonoma_oldemanii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit pour la première fois en 1975 par Jean-Jacques de Granville dans la revue Adansonia, n.s., 14: 553  (ou plutôt : 1974 publ. 1975).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geonoma_oldemanii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Geonoma_oldemanii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geonoma : nom générique qui dérive du grec  signifiant « colons », faisant probablement référence au regroupement serré de ces petits palmiers, ceci etant une forme habituelle de ces nombreuses petites espèces cespiteuses.
+oldemanii : en hommage à Roelof Arend Albert Oldeman , botaniste Hollandais, Maître de Recherches au Centre O.R.S.T.O.M. de Cayenne, qui a découvert cette espèce sur les rives du fleuve Sinnamary en 1955 .Oldeman, avec F.Hallé, ont mis au point les définitions de modèles de l’ « Architecture végétale », a partir de la typologie de développement des arbres des forêts tropicales .
 </t>
         </is>
       </c>
